--- a/biology/Zoologie/Groenlandaspis/Groenlandaspis.xlsx
+++ b/biology/Zoologie/Groenlandaspis/Groenlandaspis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Groenlandaspis est un genre éteint de placodermes arthrodires du Dévonien supérieur. 
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les fossiles des différentes espèces se trouvent dans les strates du Dévonien supérieur sur tous les continents sauf en Asie orientale. 
 Le nom générique commémore le fait que les premiers spécimens de l'espèce type Groenlandaspis mirabilis ont été trouvés au Groenland.
@@ -546,9 +560,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon BioLib                    (28 décembre 2017)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon BioLib                    (28 décembre 2017) :
 Groenlandaspis disjectus (Woodward, 1891) †
 Groenlandaspis mirabilis Heintz, 1932 †
 Groenlandaspis potyi Olive &amp; al., 2015 †</t>
